--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2483337.650282249</v>
+        <v>-2486903.152155798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14998796.12207858</v>
+        <v>14995256.24573607</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>260.7237950123078</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>196.029381598434</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968084</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>105.5748806760277</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>129.240507229474</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>216.1430874626433</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>191.8401297429754</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U6" t="n">
-        <v>197.9987431849069</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>78.39562238380269</v>
       </c>
       <c r="Y7" t="n">
-        <v>103.9123612500496</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>238.8500019963995</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.1445242432434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>215.0477552563437</v>
+        <v>299.5814790049703</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>5.19930681588703</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>155.6030943878008</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>226.4149700675826</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,7 +1622,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>120.0961968842567</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>27.95630869487712</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>38.48421435172106</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059311</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="21">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.945574312612</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838877</v>
+        <v>24.17382596574981</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828889</v>
+        <v>52.06849973564994</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431722</v>
+        <v>70.57601873167826</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459962</v>
+        <v>55.72314698196067</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643935</v>
+        <v>41.29686219380039</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931846</v>
+        <v>41.2233042466795</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908573</v>
+        <v>42.97275566644677</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147786</v>
+        <v>53.79159358883891</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804991</v>
+        <v>41.14384575541095</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922184</v>
+        <v>18.98356133658288</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367775</v>
+        <v>9.882059701038798</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920507</v>
+        <v>88.00800320656612</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.179024653335</v>
+        <v>326.8370013568502</v>
       </c>
       <c r="C2" t="n">
-        <v>1196.179024653335</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="D2" t="n">
-        <v>1196.179024653335</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="F2" t="n">
-        <v>376.701061299857</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475492</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475492</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>320.4858080663415</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>858.7445930764337</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713896</v>
+        <v>2065.661024630534</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606224</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023268</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023268</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="U2" t="n">
-        <v>1938.780579661213</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="V2" t="n">
-        <v>1596.673770364732</v>
+        <v>1087.288641455506</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.673770364732</v>
+        <v>716.2896064237934</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.673770364732</v>
+        <v>326.8370013568502</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.673770364732</v>
+        <v>326.8370013568502</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>209.0779451028509</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>692.6440310011642</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.902816011256</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1769.161601021349</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021349</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1631.245270091129</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="C4" t="n">
-        <v>1461.040152157119</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="D4" t="n">
-        <v>1461.040152157119</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="E4" t="n">
-        <v>1461.040152157119</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="F4" t="n">
-        <v>1303.714217370092</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="G4" t="n">
-        <v>1303.714217370092</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="H4" t="n">
-        <v>1303.714217370092</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="I4" t="n">
-        <v>1303.714217370092</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196194</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306135</v>
+        <v>1255.550356385311</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179935</v>
+        <v>1419.677996259111</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518199</v>
+        <v>1605.969574597375</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549408</v>
+        <v>1789.159208628584</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591116</v>
+        <v>1951.863975670292</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367695</v>
+        <v>2071.74014144687</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S4" t="n">
-        <v>1971.966885920295</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T4" t="n">
-        <v>1971.966885920295</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U4" t="n">
-        <v>1865.325592308146</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V4" t="n">
-        <v>1865.325592308146</v>
+        <v>1944.616370918463</v>
       </c>
       <c r="W4" t="n">
-        <v>1865.325592308146</v>
+        <v>1661.285968849641</v>
       </c>
       <c r="X4" t="n">
-        <v>1631.245270091129</v>
+        <v>1427.205646632624</v>
       </c>
       <c r="Y4" t="n">
-        <v>1631.245270091129</v>
+        <v>1204.093585449267</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>388.4647195631966</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="C5" t="n">
-        <v>388.4647195631966</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="D5" t="n">
-        <v>388.4647195631966</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="E5" t="n">
-        <v>388.4647195631966</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="F5" t="n">
-        <v>375.6106851335784</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475492</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475492</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253931</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354853</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572947</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465276</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523735</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958334</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661852</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="W5" t="n">
-        <v>777.9173246301398</v>
+        <v>678.2966927093153</v>
       </c>
       <c r="X5" t="n">
-        <v>388.4647195631966</v>
+        <v>678.2966927093153</v>
       </c>
       <c r="Y5" t="n">
-        <v>388.4647195631966</v>
+        <v>281.8059836299164</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475492</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569813</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569813</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>901.4935904670735</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591875</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182855</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2015.935249535679</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.3338904262509</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922402</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>659.5038901782084</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>659.5038901782084</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W7" t="n">
-        <v>659.5038901782084</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="X7" t="n">
-        <v>659.5038901782084</v>
+        <v>294.9935781135931</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.5419091175522</v>
+        <v>71.88151693023649</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>531.7095233437991</v>
+        <v>924.8850248408685</v>
       </c>
       <c r="C8" t="n">
         <v>531.7095233437991</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4835,19 +4835,19 @@
         <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1696.378805583978</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>1696.378805583978</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1325.379770552265</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>1325.379770552265</v>
       </c>
       <c r="Y8" t="n">
-        <v>531.7095233437991</v>
+        <v>1325.379770552265</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2065.751471879394</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1615.418592984052</v>
+        <v>2022.185419081016</v>
       </c>
       <c r="C11" t="n">
-        <v>1615.418592984052</v>
+        <v>1700.80619273014</v>
       </c>
       <c r="D11" t="n">
         <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185751</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838006</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917257</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="Y11" t="n">
-        <v>1615.418592984052</v>
+        <v>2350.883889646219</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.690231197904</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420615</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542446</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029533</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245444</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>936.0428256245444</v>
+        <v>793.9644698127917</v>
       </c>
       <c r="W13" t="n">
-        <v>930.7910005579919</v>
+        <v>582.4303428901632</v>
       </c>
       <c r="X13" t="n">
-        <v>768.5069534871689</v>
+        <v>425.2555000742026</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5069534871689</v>
+        <v>273.9397140370398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1864.596616636331</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1543.217390285456</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1229.572536648318</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F14" t="n">
-        <v>655.772383357234</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914312</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5312,16 +5312,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.645851055488</v>
+        <v>2984.647095423698</v>
       </c>
       <c r="W14" t="n">
-        <v>2835.645851055488</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2517.989521134739</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2193.295087201534</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>84.60386270860994</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>568.1699486069232</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.1567075134112</v>
+        <v>369.0612828489753</v>
       </c>
       <c r="C16" t="n">
-        <v>471.1567075134112</v>
+        <v>270.6524400611585</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621198</v>
+        <v>186.8156021098671</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675163</v>
+        <v>186.8156021098671</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675163</v>
+        <v>186.8156021098671</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131557</v>
+        <v>90.35782335550655</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208436</v>
+        <v>90.35782335550655</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1405.754983803661</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1241.832207118089</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1028.189690506184</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="V16" t="n">
-        <v>834.0066204732025</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="W16" t="n">
-        <v>622.472493550574</v>
+        <v>796.0728595020685</v>
       </c>
       <c r="X16" t="n">
-        <v>622.472493550574</v>
+        <v>633.7888124312454</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.1567075134112</v>
+        <v>482.4730263940827</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803434</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.744905612751</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5683,16 +5683,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5738,10 +5738,10 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5914,13 +5914,13 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
         <v>974.9038003296507</v>
@@ -5978,7 +5978,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,13 +6145,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
         <v>629.0093992567336</v>
@@ -6227,22 +6227,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174145</v>
@@ -6266,7 +6266,7 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848362</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985346</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
@@ -6373,31 +6373,31 @@
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286444</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026475</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>186.009121778567</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.815019777314</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463659</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057083</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230762</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835499</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>794.4915056886009</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1330.871943270412</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1876.872843314993</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2404.684126952455</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315958</v>
+        <v>2844.723727844784</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.22252117455</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>695.3267852290263</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1351.104756439585</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1867.625039030566</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2273.246407746964</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965119</v>
+        <v>365.6713676929714</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918658</v>
+        <v>309.3853606404859</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237452</v>
+        <v>267.6713584245259</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652537</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597519</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407227</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431899</v>
+        <v>86.73045008374194</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074066</v>
+        <v>225.4160927170964</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812064</v>
+        <v>389.5437325908962</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465409</v>
+        <v>575.8353109291602</v>
       </c>
       <c r="N34" t="n">
-        <v>971.03697717775</v>
+        <v>870.6770655353523</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250181</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395503</v>
+        <v>835.7257283273676</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000926</v>
+        <v>666.3144371400705</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124404</v>
+        <v>546.1532258045788</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584485</v>
+        <v>436.9602755027474</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6944,10 +6944,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7023,13 +7023,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1490.311599914302</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,46 +7099,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7330,25 +7330,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
         <v>1090.581152532863</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,40 +7579,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>175.2341099238429</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L45" t="n">
-        <v>658.8001958221562</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M45" t="n">
-        <v>1286.571845448837</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1942.349816659396</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1942.349816659396</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2347.971185375794</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>270.969171101253</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>435.0968109750528</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M46" t="n">
-        <v>621.3883893133168</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445259</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O46" t="n">
-        <v>967.282790386234</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>433.0361986916903</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>159.1611234709529</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>142.5942115842108</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837484</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886031</v>
+        <v>285.3870922018743</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>246.3235116806312</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>214.0018366896116</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837484</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>613.0529261115413</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>460.0844827139989</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>359.0336792490003</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,7 +8538,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>153.277245266684</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>199.6102425680207</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>112.3087888732267</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9246,13 +9246,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>424.3297954396435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,10 +9477,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>373.1055958271594</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9656,7 +9656,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9717,16 +9717,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246119</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>108.8653421701423</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236088</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,16 +10671,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>609.3287968270082</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,10 +11373,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11388,13 +11388,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>123.7997463922351</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>95.46064984442333</v>
+        <v>10.92692609579669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>204.2194788375152</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>5.058112212313972</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>101.0644071723063</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -23552,10 +23552,10 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>147.5112319245281</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>32.72886001968381</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>91.22539623282309</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1309510.23823373</v>
+        <v>1307705.595392449</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1309510.23823373</v>
+        <v>1307705.595392449</v>
       </c>
     </row>
     <row r="4">
@@ -26314,10 +26314,10 @@
         <v>18033.21780933568</v>
       </c>
       <c r="C2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="D2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933569</v>
       </c>
       <c r="E2" t="n">
         <v>15935.90234244006</v>
@@ -26326,22 +26326,22 @@
         <v>15935.90234244006</v>
       </c>
       <c r="G2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="H2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="I2" t="n">
         <v>18033.21780933568</v>
       </c>
       <c r="J2" t="n">
-        <v>18033.21780933563</v>
+        <v>18033.21780933564</v>
       </c>
       <c r="K2" t="n">
         <v>18033.21780933564</v>
       </c>
       <c r="L2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="M2" t="n">
         <v>18033.21780933568</v>
@@ -26350,7 +26350,7 @@
         <v>18033.21780933568</v>
       </c>
       <c r="O2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933567</v>
       </c>
       <c r="P2" t="n">
         <v>18033.21780933568</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972856</v>
+        <v>62456.24177539678</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>27767.6940427712</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
+        <v>151510.2534766782</v>
+      </c>
+      <c r="F4" t="n">
         <v>151510.2534766781</v>
-      </c>
-      <c r="F4" t="n">
-        <v>151510.2534766782</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26442,10 +26442,10 @@
         <v>200019.6624326435</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326435</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-463280.3442364131</v>
+        <v>-458327.3508083581</v>
       </c>
       <c r="C6" t="n">
-        <v>-281075.3959445574</v>
+        <v>-284468.6937743031</v>
       </c>
       <c r="D6" t="n">
-        <v>-289396.2363301271</v>
+        <v>-297132.5255535185</v>
       </c>
       <c r="E6" t="n">
-        <v>-300882.9323081231</v>
+        <v>-301092.6638548127</v>
       </c>
       <c r="F6" t="n">
-        <v>-188760.3708340786</v>
+        <v>-188970.1023807681</v>
       </c>
       <c r="G6" t="n">
         <v>-286831.0470111262</v>
@@ -26543,16 +26543,16 @@
         <v>-239405.7214744443</v>
       </c>
       <c r="J6" t="n">
-        <v>-452447.6390717298</v>
+        <v>-445931.3539171567</v>
       </c>
       <c r="K6" t="n">
         <v>-245645.4898772273</v>
       </c>
       <c r="L6" t="n">
-        <v>-300828.0788118484</v>
+        <v>-304876.9160223206</v>
       </c>
       <c r="M6" t="n">
-        <v>-281606.5509340673</v>
+        <v>-282658.2459452555</v>
       </c>
       <c r="N6" t="n">
         <v>-239405.7214744443</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,10 +26817,10 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293136</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.626839746607</v>
+        <v>78.07030221924597</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155133</v>
+        <v>17.58004954287438</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>34.709617553464</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407333</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>128.5199514697908</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>57.16582067131338</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27509,7 +27509,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627223</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27546,7 +27546,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27585,25 +27585,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>177.0095231644904</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>134.07904449791</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>180.3467107916396</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>217.1909982139015</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U6" t="n">
-        <v>9.96376870323769</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>153.343896611044</v>
       </c>
       <c r="Y7" t="n">
-        <v>116.9685793214735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>14.3452002733479</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.3812777453615</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,16 +28986,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29217,16 +29217,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634529063</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431655</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29542,16 +29542,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>30.27223765901277</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>43.49509683159863</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566284</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031257</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861253824</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30171,13 +30171,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>28.01250026485259</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="R40" t="n">
         <v>130.3599693155844</v>
@@ -30651,19 +30651,19 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O43" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,23 +30876,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.63600263452949</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K46" t="n">
-        <v>28.01250026485309</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>279.7880289611986</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>9.597286046856526</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>52.99727625087743</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344365</v>
+        <v>200.0149793477077</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>93.07534195013953</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344365</v>
+        <v>64.27678509188432</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>527.6808132573747</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>373.0011178946843</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>209.4698418249039</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>66.19388044736931</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>107.2231205187088</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>22.71185353989334</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>338.9576825854768</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>313.3380164832366</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>287.7334829729927</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.809314087321</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36595,7 +36595,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039242</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>216.9849246700723</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215748</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,16 +36838,16 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656005</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>113.7820836676936</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>23.49322931597565</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.890801498799</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>541.7984217998096</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114491</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066588</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111302</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273777</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676948</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791197</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>159.4555122371225</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476688</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496171</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37391,16 +37391,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>516.9416747776963</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37467,13 +37467,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R40" t="n">
         <v>7.697989841835579</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,19 +37947,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184307</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38108,13 +38108,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.81159323632111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>110.6741579516631</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565495</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
